--- a/01-data/feature_export.xlsx
+++ b/01-data/feature_export.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.479108256639535</v>
+        <v>0.4068687770768175</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.194804587657096</v>
+        <v>0.1849681479539378</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08133683655404247</v>
+        <v>0.09077552765695136</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0564095107470866</v>
+        <v>0.0865054058318841</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04750761615145555</v>
+        <v>0.05884279686526506</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04614497983819024</v>
+        <v>0.05328526475793372</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04168244558163404</v>
+        <v>0.05144639809302326</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03593740692112777</v>
+        <v>0.04760883173027003</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0170683599098324</v>
+        <v>0.01969885003391711</v>
       </c>
     </row>
   </sheetData>

--- a/01-data/feature_export.xlsx
+++ b/01-data/feature_export.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4068687770768175</v>
+        <v>0.4518449133189567</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1849681479539378</v>
+        <v>0.2010920979165355</v>
       </c>
     </row>
     <row r="4">
@@ -472,57 +472,57 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09077552765695136</v>
+        <v>0.0879095974906289</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VIX_short</t>
+          <t>close_long</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0865054058318841</v>
+        <v>0.06008337389004377</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VIX_long</t>
+          <t>close_short</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05884279686526506</v>
+        <v>0.05409749278191568</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>VIX_long</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05328526475793372</v>
+        <v>0.04667469295454861</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>close_long</t>
+          <t>VIX_short</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05144639809302326</v>
+        <v>0.04493270138133305</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>close_short</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04760883173027003</v>
+        <v>0.03416660791483465</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01969885003391711</v>
+        <v>0.0191985223512031</v>
       </c>
     </row>
   </sheetData>

--- a/01-data/feature_export.xlsx
+++ b/01-data/feature_export.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4518449133189567</v>
+        <v>0.4068687770768175</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2010920979165355</v>
+        <v>0.1849681479539378</v>
       </c>
     </row>
     <row r="4">
@@ -472,57 +472,57 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0879095974906289</v>
+        <v>0.09077552765695136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>close_long</t>
+          <t>VIX_short</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06008337389004377</v>
+        <v>0.0865054058318841</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>close_short</t>
+          <t>VIX_long</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05409749278191568</v>
+        <v>0.05884279686526506</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VIX_long</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04667469295454861</v>
+        <v>0.05328526475793372</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VIX_short</t>
+          <t>close_long</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04493270138133305</v>
+        <v>0.05144639809302326</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>close_short</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03416660791483465</v>
+        <v>0.04760883173027003</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0191985223512031</v>
+        <v>0.01969885003391711</v>
       </c>
     </row>
   </sheetData>

--- a/01-data/feature_export.xlsx
+++ b/01-data/feature_export.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4068687770768175</v>
+        <v>0.479108256639535</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1849681479539378</v>
+        <v>0.194804587657096</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09077552765695136</v>
+        <v>0.08133683655404247</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0865054058318841</v>
+        <v>0.0564095107470866</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05884279686526506</v>
+        <v>0.04750761615145555</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05328526475793372</v>
+        <v>0.04614497983819024</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05144639809302326</v>
+        <v>0.04168244558163404</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04760883173027003</v>
+        <v>0.03593740692112777</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01969885003391711</v>
+        <v>0.0170683599098324</v>
       </c>
     </row>
   </sheetData>

--- a/01-data/feature_export.xlsx
+++ b/01-data/feature_export.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.479108256639535</v>
+        <v>0.4791818795941343</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.194804587657096</v>
+        <v>0.1947694088525395</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08133683655404247</v>
+        <v>0.08149698070504065</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0564095107470866</v>
+        <v>0.0564981452771243</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04750761615145555</v>
+        <v>0.04739704151532047</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04614497983819024</v>
+        <v>0.04596051381874112</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04168244558163404</v>
+        <v>0.0417590276635002</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03593740692112777</v>
+        <v>0.0358913354759401</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0170683599098324</v>
+        <v>0.01704566709765941</v>
       </c>
     </row>
   </sheetData>

--- a/01-data/feature_export.xlsx
+++ b/01-data/feature_export.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4791818795941343</v>
+        <v>0.4068687770768175</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1947694088525395</v>
+        <v>0.1849681479539378</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08149698070504065</v>
+        <v>0.09077552765695136</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0564981452771243</v>
+        <v>0.0865054058318841</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04739704151532047</v>
+        <v>0.05884279686526506</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04596051381874112</v>
+        <v>0.05328526475793372</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0417590276635002</v>
+        <v>0.05144639809302326</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0358913354759401</v>
+        <v>0.04760883173027003</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01704566709765941</v>
+        <v>0.01969885003391711</v>
       </c>
     </row>
   </sheetData>

--- a/01-data/feature_export.xlsx
+++ b/01-data/feature_export.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4068687770768175</v>
+        <v>0.4331838745535432</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1849681479539378</v>
+        <v>0.2056875957091177</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09077552765695136</v>
+        <v>0.08878998142231662</v>
       </c>
     </row>
     <row r="5">
@@ -482,47 +482,47 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0865054058318841</v>
+        <v>0.06489229556077065</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VIX_long</t>
+          <t>close_long</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05884279686526506</v>
+        <v>0.05104989708700972</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>close_short</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05328526475793372</v>
+        <v>0.05028452932580905</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>close_long</t>
+          <t>VIX_long</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05144639809302326</v>
+        <v>0.04603280540657228</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>close_short</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04760883173027003</v>
+        <v>0.0385858148044952</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01969885003391711</v>
+        <v>0.02149320613036552</v>
       </c>
     </row>
   </sheetData>

--- a/01-data/feature_export.xlsx
+++ b/01-data/feature_export.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4331838745535432</v>
+        <v>0.4068687770768175</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2056875957091177</v>
+        <v>0.1849681479539378</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08878998142231662</v>
+        <v>0.09077552765695136</v>
       </c>
     </row>
     <row r="5">
@@ -482,47 +482,47 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06489229556077065</v>
+        <v>0.0865054058318841</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>close_long</t>
+          <t>VIX_long</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05104989708700972</v>
+        <v>0.05884279686526506</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>close_short</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05028452932580905</v>
+        <v>0.05328526475793372</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VIX_long</t>
+          <t>close_long</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04603280540657228</v>
+        <v>0.05144639809302326</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>close_short</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0385858148044952</v>
+        <v>0.04760883173027003</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02149320613036552</v>
+        <v>0.01969885003391711</v>
       </c>
     </row>
   </sheetData>

--- a/01-data/feature_export.xlsx
+++ b/01-data/feature_export.xlsx
@@ -448,21 +448,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RSI</t>
+          <t>MACD</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4068687770768175</v>
+        <v>0.3930817313426748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MACD</t>
+          <t>RSI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1849681479539378</v>
+        <v>0.3080310985219448</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09077552765695136</v>
+        <v>0.1320233135593225</v>
       </c>
     </row>
     <row r="5">
@@ -482,47 +482,47 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0865054058318841</v>
+        <v>0.04050396027363317</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VIX_long</t>
+          <t>close_short</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05884279686526506</v>
+        <v>0.03403665931781309</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>close_long</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05328526475793372</v>
+        <v>0.03071072798458908</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>close_long</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05144639809302326</v>
+        <v>0.02369486540704165</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>close_short</t>
+          <t>VIX_long</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04760883173027003</v>
+        <v>0.02211115837664275</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01969885003391711</v>
+        <v>0.01580648521633805</v>
       </c>
     </row>
   </sheetData>

--- a/01-data/feature_export.xlsx
+++ b/01-data/feature_export.xlsx
@@ -448,21 +448,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MACD</t>
+          <t>RSI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3930817313426748</v>
+        <v>0.3632625833104867</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RSI</t>
+          <t>MACD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3080310985219448</v>
+        <v>0.3137348762110019</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1320233135593225</v>
+        <v>0.1267553732018999</v>
       </c>
     </row>
     <row r="5">
@@ -482,27 +482,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04050396027363317</v>
+        <v>0.05404244098110099</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>close_short</t>
+          <t>close_long</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03403665931781309</v>
+        <v>0.03777307829157569</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>close_long</t>
+          <t>VIX_long</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03071072798458908</v>
+        <v>0.0316432158072394</v>
       </c>
     </row>
     <row r="8">
@@ -512,17 +512,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02369486540704165</v>
+        <v>0.03017372050592263</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VIX_long</t>
+          <t>close_short</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02211115837664275</v>
+        <v>0.02960072313410217</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01580648521633805</v>
+        <v>0.01301398855667049</v>
       </c>
     </row>
   </sheetData>

--- a/01-data/feature_export.xlsx
+++ b/01-data/feature_export.xlsx
@@ -448,21 +448,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RSI</t>
+          <t>MACD</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3632625833104867</v>
+        <v>0.3930817313426748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MACD</t>
+          <t>RSI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3137348762110019</v>
+        <v>0.3080310985219448</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1267553732018999</v>
+        <v>0.1320233135593225</v>
       </c>
     </row>
     <row r="5">
@@ -482,27 +482,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05404244098110099</v>
+        <v>0.04050396027363317</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>close_long</t>
+          <t>close_short</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03777307829157569</v>
+        <v>0.03403665931781309</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VIX_long</t>
+          <t>close_long</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0316432158072394</v>
+        <v>0.03071072798458908</v>
       </c>
     </row>
     <row r="8">
@@ -512,17 +512,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03017372050592263</v>
+        <v>0.02369486540704165</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>close_short</t>
+          <t>VIX_long</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02960072313410217</v>
+        <v>0.02211115837664275</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01301398855667049</v>
+        <v>0.01580648521633805</v>
       </c>
     </row>
   </sheetData>

--- a/01-data/feature_export.xlsx
+++ b/01-data/feature_export.xlsx
@@ -448,21 +448,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MACD</t>
+          <t>RSI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3930817313426748</v>
+        <v>0.4294032378541743</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RSI</t>
+          <t>MACD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3080310985219448</v>
+        <v>0.2889822478476525</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1320233135593225</v>
+        <v>0.1072619769831947</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04050396027363317</v>
+        <v>0.03805860443213046</v>
       </c>
     </row>
     <row r="6">
@@ -492,27 +492,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03403665931781309</v>
+        <v>0.03329402888711147</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>close_long</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03071072798458908</v>
+        <v>0.03056893575784117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>close_long</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02369486540704165</v>
+        <v>0.02964260696362641</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02211115837664275</v>
+        <v>0.02530395479255034</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01580648521633805</v>
+        <v>0.01748440648171872</v>
       </c>
     </row>
   </sheetData>

--- a/01-data/feature_export.xlsx
+++ b/01-data/feature_export.xlsx
@@ -448,21 +448,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RSI</t>
+          <t>MACD</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4294032378541743</v>
+        <v>0.3930817313426748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MACD</t>
+          <t>RSI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2889822478476525</v>
+        <v>0.3080310985219448</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1072619769831947</v>
+        <v>0.1320233135593225</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03805860443213046</v>
+        <v>0.04050396027363317</v>
       </c>
     </row>
     <row r="6">
@@ -492,27 +492,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03329402888711147</v>
+        <v>0.03403665931781309</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>close_long</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03056893575784117</v>
+        <v>0.03071072798458908</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>close_long</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02964260696362641</v>
+        <v>0.02369486540704165</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02530395479255034</v>
+        <v>0.02211115837664275</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01748440648171872</v>
+        <v>0.01580648521633805</v>
       </c>
     </row>
   </sheetData>

--- a/01-data/feature_export.xlsx
+++ b/01-data/feature_export.xlsx
@@ -448,21 +448,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MACD</t>
+          <t>RSI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3930817313426748</v>
+        <v>0.4073932700996711</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RSI</t>
+          <t>MACD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3080310985219448</v>
+        <v>0.2733529072579108</v>
       </c>
     </row>
     <row r="4">
@@ -472,37 +472,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1320233135593225</v>
+        <v>0.1089292803744728</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VIX_short</t>
+          <t>close_short</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04050396027363317</v>
+        <v>0.04160514548460741</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>close_short</t>
+          <t>close_long</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03403665931781309</v>
+        <v>0.04143784329497763</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>close_long</t>
+          <t>VIX_short</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03071072798458908</v>
+        <v>0.03985920536463656</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02369486540704165</v>
+        <v>0.03310259313622776</v>
       </c>
     </row>
     <row r="9">
@@ -522,17 +522,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02211115837664275</v>
+        <v>0.02745191596034834</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>fedrate</t>
+          <t>DJI</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01580648521633805</v>
+        <v>0.02686783902714749</v>
       </c>
     </row>
   </sheetData>

--- a/01-data/feature_export.xlsx
+++ b/01-data/feature_export.xlsx
@@ -448,21 +448,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RSI</t>
+          <t>MACD</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4073932700996711</v>
+        <v>0.4229088338509427</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MACD</t>
+          <t>RSI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2733529072579108</v>
+        <v>0.2848388270457197</v>
       </c>
     </row>
     <row r="4">
@@ -472,47 +472,47 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1089292803744728</v>
+        <v>0.1417336753192148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>close_short</t>
+          <t>close_long</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04160514548460741</v>
+        <v>0.03846227381309363</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>close_long</t>
+          <t>close_short</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04143784329497763</v>
+        <v>0.02833904293109818</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VIX_short</t>
+          <t>DJI</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03985920536463656</v>
+        <v>0.02684635520520896</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>VIX_short</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03310259313622776</v>
+        <v>0.02202210527213354</v>
       </c>
     </row>
     <row r="9">
@@ -522,17 +522,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02745191596034834</v>
+        <v>0.01791150646154515</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DJI</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02686783902714749</v>
+        <v>0.01693738010104325</v>
       </c>
     </row>
   </sheetData>

--- a/01-data/feature_export.xlsx
+++ b/01-data/feature_export.xlsx
@@ -448,21 +448,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MACD</t>
+          <t>RSI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4229088338509427</v>
+        <v>0.4073932700996711</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RSI</t>
+          <t>MACD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2848388270457197</v>
+        <v>0.2733529072579108</v>
       </c>
     </row>
     <row r="4">
@@ -472,47 +472,47 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1417336753192148</v>
+        <v>0.1089292803744728</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>close_long</t>
+          <t>close_short</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03846227381309363</v>
+        <v>0.04160514548460741</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>close_short</t>
+          <t>close_long</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02833904293109818</v>
+        <v>0.04143784329497763</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DJI</t>
+          <t>VIX_short</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02684635520520896</v>
+        <v>0.03985920536463656</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VIX_short</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02202210527213354</v>
+        <v>0.03310259313622776</v>
       </c>
     </row>
     <row r="9">
@@ -522,17 +522,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01791150646154515</v>
+        <v>0.02745191596034834</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>DJI</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01693738010104325</v>
+        <v>0.02686783902714749</v>
       </c>
     </row>
   </sheetData>

--- a/01-data/feature_export.xlsx
+++ b/01-data/feature_export.xlsx
@@ -448,21 +448,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MACD</t>
+          <t>RSI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4229088338509427</v>
+        <v>0.4239625248770898</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RSI</t>
+          <t>MACD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2848388270457197</v>
+        <v>0.2621484340814048</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1417336753192148</v>
+        <v>0.1035084724771837</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03846227381309363</v>
+        <v>0.04176896960810384</v>
       </c>
     </row>
     <row r="6">
@@ -492,47 +492,47 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02833904293109818</v>
+        <v>0.0406169856992712</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DJI</t>
+          <t>VIX_short</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02684635520520896</v>
+        <v>0.03976263697871905</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VIX_short</t>
+          <t>DJI</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02202210527213354</v>
+        <v>0.03047211043859476</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VIX_long</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01791150646154515</v>
+        <v>0.03017032764993959</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>VIX_long</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01693738010104325</v>
+        <v>0.02758953818969331</v>
       </c>
     </row>
   </sheetData>

--- a/01-data/feature_export.xlsx
+++ b/01-data/feature_export.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4239625248770898</v>
+        <v>0.4031794617180017</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2621484340814048</v>
+        <v>0.219527349232547</v>
       </c>
     </row>
     <row r="4">
@@ -472,47 +472,47 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1035084724771837</v>
+        <v>0.09627809665892988</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>close_long</t>
+          <t>VIX_short</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04176896960810384</v>
+        <v>0.07071289249117904</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>close_short</t>
+          <t>VIX_long</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0406169856992712</v>
+        <v>0.04878684218129294</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VIX_short</t>
+          <t>close_short</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03976263697871905</v>
+        <v>0.04532657944783455</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DJI</t>
+          <t>close_long</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03047211043859476</v>
+        <v>0.04529510356837007</v>
       </c>
     </row>
     <row r="9">
@@ -522,17 +522,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03017032764993959</v>
+        <v>0.03672005527873305</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VIX_long</t>
+          <t>DJI</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02758953818969331</v>
+        <v>0.03417361942311181</v>
       </c>
     </row>
   </sheetData>

--- a/01-data/feature_export.xlsx
+++ b/01-data/feature_export.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4031794617180017</v>
+        <v>0.4605642412342682</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.219527349232547</v>
+        <v>0.2449307532255113</v>
       </c>
     </row>
     <row r="4">
@@ -472,57 +472,57 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09627809665892988</v>
+        <v>0.09795370241457584</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VIX_short</t>
+          <t>close_long</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07071289249117904</v>
+        <v>0.04387137303273737</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VIX_long</t>
+          <t>close_short</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04878684218129294</v>
+        <v>0.03784587917419765</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>close_short</t>
+          <t>VIX_short</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04532657944783455</v>
+        <v>0.03443029589432096</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>close_long</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04529510356837007</v>
+        <v>0.02745765412396424</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>VIX_long</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03672005527873305</v>
+        <v>0.02647626597958512</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03417361942311181</v>
+        <v>0.02646983492083943</v>
       </c>
     </row>
   </sheetData>

--- a/01-data/feature_export.xlsx
+++ b/01-data/feature_export.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4605642412342682</v>
+        <v>0.4346677117383549</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2449307532255113</v>
+        <v>0.2378829424012432</v>
       </c>
     </row>
     <row r="4">
@@ -472,57 +472,57 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09795370241457584</v>
+        <v>0.09586447995276519</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>close_long</t>
+          <t>VIX_short</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04387137303273737</v>
+        <v>0.04825445431697448</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>close_short</t>
+          <t>VIX_long</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03784587917419765</v>
+        <v>0.04275628168602999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VIX_short</t>
+          <t>close_short</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03443029589432096</v>
+        <v>0.04007826965909733</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>close_long</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02745765412396424</v>
+        <v>0.03999035233643641</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VIX_long</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02647626597958512</v>
+        <v>0.03180555551077596</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02646983492083943</v>
+        <v>0.02869995239832254</v>
       </c>
     </row>
   </sheetData>

--- a/01-data/feature_export.xlsx
+++ b/01-data/feature_export.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4346677117383549</v>
+        <v>0.4031794617180017</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2378829424012432</v>
+        <v>0.219527349232547</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09586447995276519</v>
+        <v>0.09627809665892988</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04825445431697448</v>
+        <v>0.07071289249117904</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04275628168602999</v>
+        <v>0.04878684218129294</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04007826965909733</v>
+        <v>0.04532657944783455</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03999035233643641</v>
+        <v>0.04529510356837007</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03180555551077596</v>
+        <v>0.03672005527873305</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02869995239832254</v>
+        <v>0.03417361942311181</v>
       </c>
     </row>
   </sheetData>
